--- a/public/clients.xlsx
+++ b/public/clients.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318">
   <si>
     <t>name</t>
   </si>
@@ -184,663 +184,657 @@
     <t>Carnicería La Vaquita</t>
   </si>
   <si>
-    <t>Prueba</t>
+    <t>Ana López Espinoza</t>
+  </si>
+  <si>
+    <t>Leticia Fabiola Hernandez Aguilar</t>
+  </si>
+  <si>
+    <t>(963) 631-1111</t>
+  </si>
+  <si>
+    <t>María Rosa Hernández Hernández</t>
+  </si>
+  <si>
+    <t>Irma Hernández Aguilar</t>
+  </si>
+  <si>
+    <t>Margaritas</t>
+  </si>
+  <si>
+    <t>Alicia Durante Caballero</t>
+  </si>
+  <si>
+    <t>DUCA390610760</t>
+  </si>
+  <si>
+    <t>Rosario del Carmen Vásquez Vásquez</t>
+  </si>
+  <si>
+    <t>Comitán - Central de Abastos</t>
+  </si>
+  <si>
+    <t>María Cristina Gómez López</t>
+  </si>
+  <si>
+    <t>Humberto Gómez Gómez</t>
+  </si>
+  <si>
+    <t>Bárbara Álvaro Pérez</t>
+  </si>
+  <si>
+    <t>abarrotes_barbara@hotmail.com</t>
+  </si>
+  <si>
+    <t>AAPB691210AH9</t>
+  </si>
+  <si>
+    <t>Lorena Velasco Guillén</t>
+  </si>
+  <si>
+    <t>Natividad Martínez Gordillo</t>
+  </si>
+  <si>
+    <t>Julio Cesar Aguilar Guillén</t>
+  </si>
+  <si>
+    <t>Gilberto Valentín López Navarrete</t>
+  </si>
+  <si>
+    <t>despachomorales@hotmail.com</t>
+  </si>
+  <si>
+    <t>LONG5502145R2</t>
+  </si>
+  <si>
+    <t>Mercado 1 de Mayo</t>
+  </si>
+  <si>
+    <t>Ignacio Romeo Ordóñez Sánchez</t>
+  </si>
+  <si>
+    <t>ignaciorom31@gmail.com</t>
+  </si>
+  <si>
+    <t>OOVI660731AV5</t>
+  </si>
+  <si>
+    <t>044-(992)-699-5988</t>
+  </si>
+  <si>
+    <t>Las Rosas</t>
+  </si>
+  <si>
+    <t>Soledad Alfonzo Ruíz</t>
+  </si>
+  <si>
+    <t>AORS430423TE2</t>
+  </si>
+  <si>
+    <t>Hortencia Hernández Hernández</t>
+  </si>
+  <si>
+    <t>losportales_cafebar@hotmail.com</t>
+  </si>
+  <si>
+    <t>HEHH670424PE0</t>
+  </si>
+  <si>
+    <t>Martha Hernández Hernández</t>
+  </si>
+  <si>
+    <t>HEHM450709T3A</t>
+  </si>
+  <si>
+    <t>Central de Abastos</t>
+  </si>
+  <si>
+    <t>Federico García Pérez</t>
+  </si>
+  <si>
+    <t>GAPF380510ML3</t>
+  </si>
+  <si>
+    <t>Sandra Araceli García Cancino</t>
+  </si>
+  <si>
+    <t>GACS720513N44</t>
+  </si>
+  <si>
+    <t>César Contreras Hernández</t>
+  </si>
+  <si>
+    <t>cesarfact@hotmail.com</t>
+  </si>
+  <si>
+    <t>COHC840201DR1</t>
+  </si>
+  <si>
+    <t>María Candelaria Borraz Vásquez</t>
+  </si>
+  <si>
+    <t>BOVC560315M80</t>
+  </si>
+  <si>
+    <t>Venustiano Carranza</t>
+  </si>
+  <si>
+    <t>Jorge Pérez Pérez</t>
+  </si>
+  <si>
+    <t>turi_morales@hotmail.com</t>
+  </si>
+  <si>
+    <t>PEPJ780427LS6</t>
+  </si>
+  <si>
+    <t>Ezequiel Morales Godínez</t>
+  </si>
+  <si>
+    <t>moralesg@hotmail.es</t>
+  </si>
+  <si>
+    <t>MOGE790403U86</t>
+  </si>
+  <si>
+    <t>Gabriela del Río Garza</t>
+  </si>
+  <si>
+    <t>pepperscomitan@gmail.com</t>
+  </si>
+  <si>
+    <t>MAS150316PQ2</t>
+  </si>
+  <si>
+    <t>Comitán - Plaza Boulevard</t>
+  </si>
+  <si>
+    <t>Verónica Álvarez López</t>
+  </si>
+  <si>
+    <t>AALV890930AH0</t>
+  </si>
+  <si>
+    <t>Tzimol</t>
+  </si>
+  <si>
+    <t>René Gómez Velasco</t>
+  </si>
+  <si>
+    <t>GOVR730911U97</t>
+  </si>
+  <si>
+    <t>La Independencia</t>
+  </si>
+  <si>
+    <t>Rosa Martha Aguilar García</t>
+  </si>
+  <si>
+    <t>AUGR590415U63</t>
+  </si>
+  <si>
+    <t>Rosa Elizabeth Bonilla Hidalgo</t>
+  </si>
+  <si>
+    <t>BOHR680508SHA</t>
+  </si>
+  <si>
+    <t>Casa Hogar Don Bosco y Santo Domingo AC</t>
+  </si>
+  <si>
+    <t>CHB810911GP1</t>
+  </si>
+  <si>
+    <t>Refugio López Navarrete</t>
+  </si>
+  <si>
+    <t>José Manuel Méndez Flores</t>
+  </si>
+  <si>
+    <t>José Eduardo Pérez Méndez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Trinitaria </t>
+  </si>
+  <si>
+    <t>Alfredo Pérez Méndez</t>
+  </si>
+  <si>
+    <t>La Trinitaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fidel Hernández Méndez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La trinitaria </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eustorgio Morales Espinoza </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luis Enrique Ruiz Bermúdez </t>
+  </si>
+  <si>
+    <t>María Francisca López Alfonzo</t>
+  </si>
+  <si>
+    <t>Comitán - La Pilita Seca</t>
+  </si>
+  <si>
+    <t>Clara Luz Barco Calvo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comitán - La Pilita Seca </t>
+  </si>
+  <si>
+    <t>Rosaura Camposeco García</t>
+  </si>
+  <si>
+    <t>Guadalupe Hernández Velasco</t>
+  </si>
+  <si>
+    <t>Catalina Gómez Pérez</t>
+  </si>
+  <si>
+    <t>Francisco Sarabia</t>
+  </si>
+  <si>
+    <t>Guadalupe Jiménez López</t>
+  </si>
+  <si>
+    <t>María Irma Calvo Pérez</t>
+  </si>
+  <si>
+    <t>Artemio Martínez Aguilar</t>
+  </si>
+  <si>
+    <t>Comitán - Terminal de Cuxtepeques</t>
+  </si>
+  <si>
+    <t>Guadalupe Espinoza Alfonzo</t>
+  </si>
+  <si>
+    <t>Juana Diego Bernabé</t>
+  </si>
+  <si>
+    <t>Comitán - Terminal Tzobol</t>
+  </si>
+  <si>
+    <t>Guadalupe Trujillo Trejo</t>
+  </si>
+  <si>
+    <t>Ana Luz Fuentes Román</t>
+  </si>
+  <si>
+    <t>Comitán - Col. Popular</t>
+  </si>
+  <si>
+    <t>Flor de María Hernández Velasco</t>
+  </si>
+  <si>
+    <t>Comitán - Col. Belisario Domínguez</t>
+  </si>
+  <si>
+    <t>Aradeli Villatoro Hidalgo</t>
+  </si>
+  <si>
+    <t>Mario Silva López</t>
+  </si>
+  <si>
+    <t>Comitán - Oxxo Central de Abastos</t>
+  </si>
+  <si>
+    <t>Rosenda Hernández Vásquez</t>
+  </si>
+  <si>
+    <t>Virgilio López Hernández</t>
+  </si>
+  <si>
+    <t>San Quintín</t>
+  </si>
+  <si>
+    <t>Amalia Culebro Carrascosa</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Emilio Velasco Moreno</t>
+  </si>
+  <si>
+    <t>Ismael Díaz Hernández</t>
+  </si>
+  <si>
+    <t>Araceli Aguilar Jiménez</t>
+  </si>
+  <si>
+    <t>María Antonia Cruz Espinoza</t>
+  </si>
+  <si>
+    <t>Comitán - Terminal de Socoltenango</t>
+  </si>
+  <si>
+    <t>María Teresa López Aguilar</t>
+  </si>
+  <si>
+    <t>Comitán - Barrio San Agustín</t>
+  </si>
+  <si>
+    <t>Guadalupe Domínguez Albores</t>
+  </si>
+  <si>
+    <t>Comitán - Fracc. Foviste</t>
+  </si>
+  <si>
+    <t>Irene Rodríguez Zamorano</t>
+  </si>
+  <si>
+    <t>Carlos Aguilar Alfaro</t>
+  </si>
+  <si>
+    <t>Comitán - Cruz Grande</t>
+  </si>
+  <si>
+    <t>Rebeca Silva Méndez</t>
+  </si>
+  <si>
+    <t>Comitán - Terminal Lagos de Montebello</t>
+  </si>
+  <si>
+    <t>Norma Leticia Aguilar García</t>
+  </si>
+  <si>
+    <t>El Triunfo</t>
+  </si>
+  <si>
+    <t>Romeo Aguilar Aguilar</t>
+  </si>
+  <si>
+    <t>Josué Reyes RAmírez</t>
+  </si>
+  <si>
+    <t>Carmen Xhán</t>
+  </si>
+  <si>
+    <t>José Martínez Ramos</t>
+  </si>
+  <si>
+    <t>Rubén Vásquez Martínez</t>
+  </si>
+  <si>
+    <t>Sandra Pérez Morales</t>
+  </si>
+  <si>
+    <t>Geydi Araceli Pérez Camposeco</t>
+  </si>
+  <si>
+    <t>Elizabeth Velasco Cruz</t>
+  </si>
+  <si>
+    <t>Lázaro Cárdenas</t>
+  </si>
+  <si>
+    <t>María Elena Hernández Silva</t>
+  </si>
+  <si>
+    <t>Alejandro Penagos López</t>
+  </si>
+  <si>
+    <t>Comitán - El Cedro</t>
+  </si>
+  <si>
+    <t>City Pub Boulevard</t>
+  </si>
+  <si>
+    <t>City Pub Centro</t>
+  </si>
+  <si>
+    <t>José Mercedes Velasco Aguilar</t>
+  </si>
+  <si>
+    <t>La Mesilla</t>
+  </si>
+  <si>
+    <t>Maira Elizabeth Rosales Hernández</t>
+  </si>
+  <si>
+    <t>Pujiltic</t>
+  </si>
+  <si>
+    <t>Sebastiana López Moreno</t>
+  </si>
+  <si>
+    <t>Roberto Rivera Castellanos</t>
+  </si>
+  <si>
+    <t>Ángel Briseño Rojas</t>
+  </si>
+  <si>
+    <t>Petronila López Moreno</t>
+  </si>
+  <si>
+    <t>Rubisel López Álvarez</t>
+  </si>
+  <si>
+    <t>Alfredo Martínez Mazariegos</t>
+  </si>
+  <si>
+    <t>Alicia Pérez López</t>
+  </si>
+  <si>
+    <t>Isaias López Morales</t>
+  </si>
+  <si>
+    <t>Pedro Cruz Díaz</t>
+  </si>
+  <si>
+    <t>Rosa María García Hernández</t>
+  </si>
+  <si>
+    <t>María Elena López Trujillo</t>
+  </si>
+  <si>
+    <t>Francisco Valdes Reyes</t>
+  </si>
+  <si>
+    <t>Amparo Velasco Moreno</t>
+  </si>
+  <si>
+    <t>Comitán - Mercado 1 de Mayo</t>
+  </si>
+  <si>
+    <t>Rosario Álvarez Morales</t>
+  </si>
+  <si>
+    <t>Arminda Marroquín Pérez</t>
+  </si>
+  <si>
+    <t>Concepción García Hernández</t>
+  </si>
+  <si>
+    <t>Rita Áviles Ferrer</t>
+  </si>
+  <si>
+    <t>Elodia Santiago Ordoñez</t>
+  </si>
+  <si>
+    <t>Amparo Guillén Velasco</t>
+  </si>
+  <si>
+    <t>Graciela Aguilar López</t>
+  </si>
+  <si>
+    <t>María Elena Morales Alfonzo</t>
+  </si>
+  <si>
+    <t>Socorro Velasco Moreno</t>
+  </si>
+  <si>
+    <t>Cristina Espinoza Flores</t>
+  </si>
+  <si>
+    <t>María Eugenia Pinto López</t>
+  </si>
+  <si>
+    <t>Bersabé Silvestre Carbajal</t>
+  </si>
+  <si>
+    <t>Carmen Argüello Sánchez</t>
+  </si>
+  <si>
+    <t>Comitán - Mercado Maya</t>
+  </si>
+  <si>
+    <t>Jorge Ezequiel Pérez Pérez</t>
+  </si>
+  <si>
+    <t>Leticia Aguilar Villatoro</t>
+  </si>
+  <si>
+    <t>Clara Luz García Calvo</t>
+  </si>
+  <si>
+    <t>Rodolfo Torres Pinto</t>
+  </si>
+  <si>
+    <t>Juan Hernández Roblero</t>
+  </si>
+  <si>
+    <t>Otila Hernández Argüello</t>
+  </si>
+  <si>
+    <t>Cristina Gómez López</t>
+  </si>
+  <si>
+    <t>Victoria Velasco Velasco</t>
+  </si>
+  <si>
+    <t>Comitán - Mercado 1 de Junio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fresco cerdo </t>
+  </si>
+  <si>
+    <t>Edy del Carmen Vásquez Gordillo</t>
+  </si>
+  <si>
+    <t>Mary Gómez Cruz</t>
+  </si>
+  <si>
+    <t>Celia Faustina Santiago Ordoñez</t>
+  </si>
+  <si>
+    <t>Irma Aguilar Pérez</t>
+  </si>
+  <si>
+    <t>Cruz Delma López Espinoza</t>
+  </si>
+  <si>
+    <t>Leticia Villalobos Torres</t>
+  </si>
+  <si>
+    <t>Leticia López Solís</t>
+  </si>
+  <si>
+    <t>Claudia Utrilla Gómez</t>
+  </si>
+  <si>
+    <t>María Elena Alfonzo Ruíz</t>
+  </si>
+  <si>
+    <t>Guadalupe Concepción Morales Sosa</t>
+  </si>
+  <si>
+    <t>Daniel López García</t>
+  </si>
+  <si>
+    <t>María Guadalupe Aguilar Pérez</t>
+  </si>
+  <si>
+    <t>Yolanda Hernández Aguilar</t>
+  </si>
+  <si>
+    <t>Rosa Candelaria Gordillo Cordero</t>
+  </si>
+  <si>
+    <t>José Antonio Aguilar García</t>
+  </si>
+  <si>
+    <t>Mercedes Velasco García</t>
+  </si>
+  <si>
+    <t>Manuel Mario Abadía Gordillo</t>
+  </si>
+  <si>
+    <t>044-(963)-166-7194</t>
+  </si>
+  <si>
+    <t>Alfredo Ventura López</t>
+  </si>
+  <si>
+    <t>Juan José López Moreno</t>
+  </si>
+  <si>
+    <t>Noé Hernández Altuzar</t>
+  </si>
+  <si>
+    <t>eldeliciosopollo@gmail.com</t>
+  </si>
+  <si>
+    <t>Alejandro Francisco Mazariegos</t>
+  </si>
+  <si>
+    <t>Rosa Eugenia Borraz Vásquez</t>
+  </si>
+  <si>
+    <t>Eva López Solís</t>
+  </si>
+  <si>
+    <t>Gonzalo Vásquez Vásquez</t>
+  </si>
+  <si>
+    <t>Alvin Zamorano Silva</t>
+  </si>
+  <si>
+    <t>Domitila Pérez Velásquez</t>
+  </si>
+  <si>
+    <t>Eriberto Ramírez Hernández</t>
+  </si>
+  <si>
+    <t>Comitán - Terminal Chilambalam</t>
+  </si>
+  <si>
+    <t>Manuel de Jesús López López</t>
+  </si>
+  <si>
+    <t>Araceli Ocampo Silva</t>
+  </si>
+  <si>
+    <t>El Porvenir</t>
+  </si>
+  <si>
+    <t>Maribel García Castro</t>
+  </si>
+  <si>
+    <t>Chacaljocom</t>
+  </si>
+  <si>
+    <t>Edén Gómez Ávalo</t>
+  </si>
+  <si>
+    <t>Teopisca</t>
+  </si>
+  <si>
+    <t>Mary Blanca Joachín Ramírez</t>
+  </si>
+  <si>
+    <t>Público en General</t>
   </si>
   <si>
     <t xml:space="preserve">vivo fresco procesado cerdo </t>
   </si>
   <si>
-    <t>Ana López Espinoza</t>
-  </si>
-  <si>
-    <t>Leticia Fabiola Hernandez Aguilar</t>
-  </si>
-  <si>
-    <t>(963) 631-1111</t>
-  </si>
-  <si>
-    <t>María Rosa Hernández Hernández</t>
-  </si>
-  <si>
-    <t>Irma Hernández Aguilar</t>
-  </si>
-  <si>
-    <t>Margaritas</t>
-  </si>
-  <si>
-    <t>Alicia Durante Caballero</t>
-  </si>
-  <si>
-    <t>DUCA390610760</t>
-  </si>
-  <si>
-    <t>Rosario del Carmen Vásquez Vásquez</t>
-  </si>
-  <si>
-    <t>Comitán - Central de Abastos</t>
-  </si>
-  <si>
-    <t>María Cristina Gómez López</t>
-  </si>
-  <si>
-    <t>Humberto Gómez Gómez</t>
-  </si>
-  <si>
-    <t>Bárbara Álvaro Pérez</t>
-  </si>
-  <si>
-    <t>abarrotes_barbara@hotmail.com</t>
-  </si>
-  <si>
-    <t>AAPB691210AH9</t>
-  </si>
-  <si>
-    <t>Lorena Velasco Guillén</t>
-  </si>
-  <si>
-    <t>Natividad Martínez Gordillo</t>
-  </si>
-  <si>
-    <t>Julio Cesar Aguilar Guillén</t>
-  </si>
-  <si>
-    <t>Gilberto Valentín López Navarrete</t>
-  </si>
-  <si>
-    <t>despachomorales@hotmail.com</t>
-  </si>
-  <si>
-    <t>LONG5502145R2</t>
-  </si>
-  <si>
-    <t>Mercado 1 de Mayo</t>
-  </si>
-  <si>
-    <t>Ignacio Romeo Ordóñez Sánchez</t>
-  </si>
-  <si>
-    <t>ignaciorom31@gmail.com</t>
-  </si>
-  <si>
-    <t>OOVI660731AV5</t>
-  </si>
-  <si>
-    <t>044-(992)-699-5988</t>
-  </si>
-  <si>
-    <t>Las Rosas</t>
-  </si>
-  <si>
-    <t>HEHR640915GK2</t>
-  </si>
-  <si>
-    <t>Soledad Alfonzo Ruíz</t>
-  </si>
-  <si>
-    <t>AORS430423TE2</t>
-  </si>
-  <si>
-    <t>Hortencia Hernández Hernández</t>
-  </si>
-  <si>
-    <t>losportales_cafebar@hotmail.com</t>
-  </si>
-  <si>
-    <t>HEHH670424PE0</t>
-  </si>
-  <si>
-    <t>Martha Hernández Hernández</t>
-  </si>
-  <si>
-    <t>HEHM450709T3A</t>
-  </si>
-  <si>
-    <t>Central de Abastos</t>
-  </si>
-  <si>
-    <t>Federico García Pérez</t>
-  </si>
-  <si>
-    <t>GAPF380510ML3</t>
-  </si>
-  <si>
-    <t>Sandra Araceli García Cancino</t>
-  </si>
-  <si>
-    <t>GACS720513N44</t>
-  </si>
-  <si>
-    <t>César Contreras Hernández</t>
-  </si>
-  <si>
-    <t>cesarfact@hotmail.com</t>
-  </si>
-  <si>
-    <t>COHC840201DR1</t>
-  </si>
-  <si>
-    <t>María Candelaria Borraz Vásquez</t>
-  </si>
-  <si>
-    <t>BOVC560315M80</t>
-  </si>
-  <si>
-    <t>Venustiano Carranza</t>
-  </si>
-  <si>
-    <t>Jorge Pérez Pérez</t>
-  </si>
-  <si>
-    <t>turi_morales@hotmail.com</t>
-  </si>
-  <si>
-    <t>PEPJ780427LS6</t>
-  </si>
-  <si>
-    <t>Ezequiel Morales Godínez</t>
-  </si>
-  <si>
-    <t>moralesg@hotmail.es</t>
-  </si>
-  <si>
-    <t>MOGE790403U86</t>
-  </si>
-  <si>
-    <t>Gabriela del Río Garza</t>
-  </si>
-  <si>
-    <t>pepperscomitan@gmail.com</t>
-  </si>
-  <si>
-    <t>MAS150316PQ2</t>
-  </si>
-  <si>
-    <t>Comitán - Plaza Boulevard</t>
-  </si>
-  <si>
-    <t>Verónica Álvarez López</t>
-  </si>
-  <si>
-    <t>AALV890930AH0</t>
-  </si>
-  <si>
-    <t>Tzimol</t>
-  </si>
-  <si>
-    <t>René Gómez Velasco</t>
-  </si>
-  <si>
-    <t>GOVR730911U97</t>
-  </si>
-  <si>
-    <t>La Independencia</t>
-  </si>
-  <si>
-    <t>Rosa Martha Aguilar García</t>
-  </si>
-  <si>
-    <t>AUGR590415U63</t>
-  </si>
-  <si>
-    <t>Rosa Elizabeth Bonilla Hidalgo</t>
-  </si>
-  <si>
-    <t>BOHR680508SHA</t>
-  </si>
-  <si>
-    <t>Casa Hogar Don Bosco y Santo Domingo AC</t>
-  </si>
-  <si>
-    <t>CHB810911GP1</t>
-  </si>
-  <si>
-    <t>Refugio López Navarrete</t>
-  </si>
-  <si>
-    <t>José Manuel Méndez Flores</t>
-  </si>
-  <si>
-    <t>José Eduardo Pérez Méndez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La Trinitaria </t>
-  </si>
-  <si>
-    <t>Alfredo Pérez Méndez</t>
-  </si>
-  <si>
-    <t>La Trinitaria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fidel Hernández Méndez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">La trinitaria </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eustorgio Morales Espinoza </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luis Enrique Ruiz Bermúdez </t>
-  </si>
-  <si>
-    <t>María Francisca López Alfonzo</t>
-  </si>
-  <si>
-    <t>Comitán - La Pilita Seca</t>
-  </si>
-  <si>
-    <t>Clara Luz Barco Calvo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comitán - La Pilita Seca </t>
-  </si>
-  <si>
-    <t>Rosaura Camposeco García</t>
-  </si>
-  <si>
-    <t>Guadalupe Hernández Velasco</t>
-  </si>
-  <si>
-    <t>Catalina Gómez Pérez</t>
-  </si>
-  <si>
-    <t>Francisco Sarabia</t>
-  </si>
-  <si>
-    <t>Guadalupe Jiménez López</t>
-  </si>
-  <si>
-    <t>María Irma Calvo Pérez</t>
-  </si>
-  <si>
-    <t>Artemio Martínez Aguilar</t>
-  </si>
-  <si>
-    <t>Comitán - Terminal de Cuxtepeques</t>
-  </si>
-  <si>
-    <t>Guadalupe Espinoza Alfonzo</t>
-  </si>
-  <si>
-    <t>Juana Diego Bernabé</t>
-  </si>
-  <si>
-    <t>Comitán - Terminal Tzobol</t>
-  </si>
-  <si>
-    <t>Guadalupe Trujillo Trejo</t>
-  </si>
-  <si>
-    <t>Ana Luz Fuentes Román</t>
-  </si>
-  <si>
-    <t>Comitán - Col. Popular</t>
-  </si>
-  <si>
-    <t>Flor de María Hernández Velasco</t>
-  </si>
-  <si>
-    <t>Comitán - Col. Belisario Domínguez</t>
-  </si>
-  <si>
-    <t>Aradeli Villatoro Hidalgo</t>
-  </si>
-  <si>
-    <t>Mario Silva López</t>
-  </si>
-  <si>
-    <t>Comitán - Oxxo Central de Abastos</t>
-  </si>
-  <si>
-    <t>Rosenda Hernández Vásquez</t>
-  </si>
-  <si>
-    <t>Virgilio López Hernández</t>
-  </si>
-  <si>
-    <t>San Quintín</t>
-  </si>
-  <si>
-    <t>Amalia Culebro Carrascosa</t>
-  </si>
-  <si>
-    <t>Cash</t>
-  </si>
-  <si>
-    <t>Emilio Velasco Moreno</t>
-  </si>
-  <si>
-    <t>Ismael Díaz Hernández</t>
-  </si>
-  <si>
-    <t>Araceli Aguilar Jiménez</t>
-  </si>
-  <si>
-    <t>María Antonia Cruz Espinoza</t>
-  </si>
-  <si>
-    <t>Comitán - Terminal de Socoltenango</t>
-  </si>
-  <si>
-    <t>María Teresa López Aguilar</t>
-  </si>
-  <si>
-    <t>Comitán - Barrio San Agustín</t>
-  </si>
-  <si>
-    <t>Guadalupe Domínguez Albores</t>
-  </si>
-  <si>
-    <t>Comitán - Fracc. Foviste</t>
-  </si>
-  <si>
-    <t>Irene Rodríguez Zamorano</t>
-  </si>
-  <si>
-    <t>Carlos Aguilar Alfaro</t>
-  </si>
-  <si>
-    <t>Comitán - Cruz Grande</t>
-  </si>
-  <si>
-    <t>Rebeca Silva Méndez</t>
-  </si>
-  <si>
-    <t>Comitán - Terminal Lagos de Montebello</t>
-  </si>
-  <si>
-    <t>Norma Leticia Aguilar García</t>
-  </si>
-  <si>
-    <t>El Triunfo</t>
-  </si>
-  <si>
-    <t>Romeo Aguilar Aguilar</t>
-  </si>
-  <si>
-    <t>Josué Reyes RAmírez</t>
-  </si>
-  <si>
-    <t>Carmen Xhán</t>
-  </si>
-  <si>
-    <t>José Martínez Ramos</t>
-  </si>
-  <si>
-    <t>Rubén Vásquez Martínez</t>
-  </si>
-  <si>
-    <t>Sandra Pérez Morales</t>
-  </si>
-  <si>
-    <t>Geydi Araceli Pérez Camposeco</t>
-  </si>
-  <si>
-    <t>Elizabeth Velasco Cruz</t>
-  </si>
-  <si>
-    <t>Lázaro Cárdenas</t>
-  </si>
-  <si>
-    <t>María Elena Hernández Silva</t>
-  </si>
-  <si>
-    <t>Alejandro Penagos López</t>
-  </si>
-  <si>
-    <t>Comitán - El Cedro</t>
-  </si>
-  <si>
-    <t>City Pub Boulevard</t>
-  </si>
-  <si>
-    <t>City Pub Centro</t>
-  </si>
-  <si>
-    <t>José Mercedes Velasco Aguilar</t>
-  </si>
-  <si>
-    <t>La Mesilla</t>
-  </si>
-  <si>
-    <t>Maira Elizabeth Rosales Hernández</t>
-  </si>
-  <si>
-    <t>Pujiltic</t>
-  </si>
-  <si>
-    <t>Sebastiana López Moreno</t>
-  </si>
-  <si>
-    <t>Roberto Rivera Castellanos</t>
-  </si>
-  <si>
-    <t>Ángel Briseño Rojas</t>
-  </si>
-  <si>
-    <t>Petronila López Moreno</t>
-  </si>
-  <si>
-    <t>Rubisel López Álvarez</t>
-  </si>
-  <si>
-    <t>Alfredo Martínez Mazariegos</t>
-  </si>
-  <si>
-    <t>Alicia Pérez López</t>
-  </si>
-  <si>
-    <t>Isaias López Morales</t>
-  </si>
-  <si>
-    <t>Pedro Cruz Díaz</t>
-  </si>
-  <si>
-    <t>Rosa María García Hernández</t>
-  </si>
-  <si>
-    <t>María Elena López Trujillo</t>
-  </si>
-  <si>
-    <t>Francisco Valdes Reyes</t>
-  </si>
-  <si>
-    <t>Amparo Velasco Moreno</t>
-  </si>
-  <si>
-    <t>Comitán - Mercado 1 de Mayo</t>
-  </si>
-  <si>
-    <t>Rosario Álvarez Morales</t>
-  </si>
-  <si>
-    <t>Arminda Marroquín Pérez</t>
-  </si>
-  <si>
-    <t>Concepción García Hernández</t>
-  </si>
-  <si>
-    <t>Rita Áviles Ferrer</t>
-  </si>
-  <si>
-    <t>Elodia Santiago Ordoñez</t>
-  </si>
-  <si>
-    <t>Amparo Guillén Velasco</t>
-  </si>
-  <si>
-    <t>Graciela Aguilar López</t>
-  </si>
-  <si>
-    <t>María Elena Morales Alfonzo</t>
-  </si>
-  <si>
-    <t>Socorro Velasco Moreno</t>
-  </si>
-  <si>
-    <t>Cristina Espinoza Flores</t>
-  </si>
-  <si>
-    <t>María Eugenia Pinto López</t>
-  </si>
-  <si>
-    <t>Bersabé Silvestre Carbajal</t>
-  </si>
-  <si>
-    <t>Carmen Argüello Sánchez</t>
-  </si>
-  <si>
-    <t>Comitán - Mercado Maya</t>
-  </si>
-  <si>
-    <t>Jorge Ezequiel Pérez Pérez</t>
-  </si>
-  <si>
-    <t>Leticia Aguilar Villatoro</t>
-  </si>
-  <si>
-    <t>Clara Luz García Calvo</t>
-  </si>
-  <si>
-    <t>Rodolfo Torres Pinto</t>
-  </si>
-  <si>
-    <t>Juan Hernández Roblero</t>
-  </si>
-  <si>
-    <t>Otila Hernández Argüello</t>
-  </si>
-  <si>
-    <t>Cristina Gómez López</t>
-  </si>
-  <si>
-    <t>Victoria Velasco Velasco</t>
-  </si>
-  <si>
-    <t>Comitán - Mercado 1 de Junio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fresco cerdo </t>
-  </si>
-  <si>
-    <t>Edy del Carmen Vásquez Gordillo</t>
-  </si>
-  <si>
-    <t>Mary Gómez Cruz</t>
-  </si>
-  <si>
-    <t>Celia Faustina Santiago Ordoñez</t>
-  </si>
-  <si>
-    <t>Irma Aguilar Pérez</t>
-  </si>
-  <si>
-    <t>Cruz Delma López Espinoza</t>
-  </si>
-  <si>
-    <t>Leticia Villalobos Torres</t>
-  </si>
-  <si>
-    <t>Leticia López Solís</t>
-  </si>
-  <si>
-    <t>Claudia Utrilla Gómez</t>
-  </si>
-  <si>
-    <t>María Elena Alfonzo Ruíz</t>
-  </si>
-  <si>
-    <t>Guadalupe Concepción Morales Sosa</t>
-  </si>
-  <si>
-    <t>Daniel López García</t>
-  </si>
-  <si>
-    <t>María Guadalupe Aguilar Pérez</t>
-  </si>
-  <si>
-    <t>Yolanda Hernández Aguilar</t>
-  </si>
-  <si>
-    <t>Rosa Candelaria Gordillo Cordero</t>
-  </si>
-  <si>
-    <t>José Antonio Aguilar García</t>
-  </si>
-  <si>
-    <t>Mercedes Velasco García</t>
-  </si>
-  <si>
-    <t>Manuel Mario Abadía Gordillo</t>
-  </si>
-  <si>
-    <t>044-(963)-166-7194</t>
-  </si>
-  <si>
-    <t>Alfredo Ventura López</t>
-  </si>
-  <si>
-    <t>Juan José López Moreno</t>
-  </si>
-  <si>
-    <t>Noé Hernández Altuzar</t>
-  </si>
-  <si>
-    <t>eldeliciosopollo@gmail.com</t>
-  </si>
-  <si>
-    <t>Alejandro Francisco Mazariegos</t>
-  </si>
-  <si>
-    <t>Rosa Eugenia Borraz Vásquez</t>
-  </si>
-  <si>
-    <t>Eva López Solís</t>
-  </si>
-  <si>
-    <t>Gonzalo Vásquez Vásquez</t>
-  </si>
-  <si>
-    <t>Alvin Zamorano Silva</t>
-  </si>
-  <si>
-    <t>Domitila Pérez Velásquez</t>
-  </si>
-  <si>
-    <t>Eriberto Ramírez Hernández</t>
-  </si>
-  <si>
-    <t>Comitán - Terminal Chilambalam</t>
-  </si>
-  <si>
-    <t>Manuel de Jesús López López</t>
-  </si>
-  <si>
-    <t>Araceli Ocampo Silva</t>
-  </si>
-  <si>
-    <t>El Porvenir</t>
-  </si>
-  <si>
-    <t>Maribel García Castro</t>
-  </si>
-  <si>
-    <t>Chacaljocom</t>
-  </si>
-  <si>
-    <t>Edén Gómez Ávalo</t>
-  </si>
-  <si>
-    <t>Teopisca</t>
-  </si>
-  <si>
-    <t>Mary Blanca Joachín Ramírez</t>
-  </si>
-  <si>
-    <t>Público en General</t>
-  </si>
-  <si>
     <t>Miguel Ángel Pérez Pérez</t>
   </si>
   <si>
@@ -935,9 +929,6 @@
   </si>
   <si>
     <t>Jesús Antonio Pinto Méndez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vivo fresco cerdo </t>
   </si>
   <si>
     <t>Juan Carlos Hernández Morales</t>
@@ -1007,7 +998,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1015,13 +1006,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1074,6 +1058,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1114,14 +1105,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -1143,6 +1126,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1156,6 +1147,66 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1177,60 +1228,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1238,12 +1235,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1267,13 +1258,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1292,30 +1289,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1340,6 +1313,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1455,7 +1446,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1473,10 +1464,10 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
@@ -1485,52 +1476,52 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1539,64 +1530,64 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1926,10 +1917,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J210"/>
+  <dimension ref="A1:J197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C149" workbookViewId="0">
-      <selection activeCell="I202" sqref="I202"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="$A19:$XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -2039,7 +2030,7 @@
         <v>17</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J66" si="0">IF(G3="si",1,0)</f>
+        <f>IF(G3="si",1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2069,7 +2060,7 @@
         <v>17</v>
       </c>
       <c r="J4">
-        <f t="shared" si="0"/>
+        <f>IF(G4="si",1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -2096,7 +2087,7 @@
         <v>17</v>
       </c>
       <c r="J5">
-        <f t="shared" si="0"/>
+        <f>IF(G5="si",1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -2120,7 +2111,7 @@
         <v>31</v>
       </c>
       <c r="J6">
-        <f t="shared" si="0"/>
+        <f>IF(G6="si",1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -2153,7 +2144,7 @@
         <v>36</v>
       </c>
       <c r="J7">
-        <f t="shared" si="0"/>
+        <f>IF(G7="si",1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2180,7 +2171,7 @@
         <v>40</v>
       </c>
       <c r="J8">
-        <f t="shared" si="0"/>
+        <f>IF(G8="si",1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -2207,7 +2198,7 @@
         <v>40</v>
       </c>
       <c r="J9">
-        <f t="shared" si="0"/>
+        <f>IF(G9="si",1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -2228,7 +2219,7 @@
         <v>17</v>
       </c>
       <c r="J10">
-        <f t="shared" si="0"/>
+        <f>IF(G10="si",1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -2252,7 +2243,7 @@
         <v>31</v>
       </c>
       <c r="J11">
-        <f t="shared" si="0"/>
+        <f>IF(G11="si",1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -2279,7 +2270,7 @@
         <v>47</v>
       </c>
       <c r="J12">
-        <f t="shared" si="0"/>
+        <f>IF(G12="si",1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -2306,7 +2297,7 @@
         <v>36</v>
       </c>
       <c r="J13">
-        <f t="shared" si="0"/>
+        <f>IF(G13="si",1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2327,7 +2318,7 @@
         <v>50</v>
       </c>
       <c r="J14">
-        <f t="shared" si="0"/>
+        <f>IF(G14="si",1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -2348,7 +2339,7 @@
         <v>40</v>
       </c>
       <c r="J15">
-        <f t="shared" si="0"/>
+        <f>IF(G15="si",1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -2369,7 +2360,7 @@
         <v>40</v>
       </c>
       <c r="J16">
-        <f t="shared" si="0"/>
+        <f>IF(G16="si",1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -2390,7 +2381,7 @@
         <v>40</v>
       </c>
       <c r="J17">
-        <f t="shared" si="0"/>
+        <f>IF(G17="si",1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -2411,7 +2402,7 @@
         <v>31</v>
       </c>
       <c r="J18">
-        <f t="shared" si="0"/>
+        <f>IF(G18="si",1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2419,12 +2410,6 @@
       <c r="A19" t="s">
         <v>56</v>
       </c>
-      <c r="D19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" t="s">
-        <v>14</v>
-      </c>
       <c r="F19" t="s">
         <v>15</v>
       </c>
@@ -2432,18 +2417,21 @@
         <v>16</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I19" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="J19">
-        <f t="shared" si="0"/>
+        <f>IF(G19="si",1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" t="s">
         <v>58</v>
       </c>
       <c r="F20" t="s">
@@ -2453,13 +2441,13 @@
         <v>16</v>
       </c>
       <c r="H20">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I20" t="s">
         <v>47</v>
       </c>
       <c r="J20">
-        <f t="shared" si="0"/>
+        <f>IF(G20="si",1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -2467,65 +2455,65 @@
       <c r="A21" t="s">
         <v>59</v>
       </c>
-      <c r="D21" t="s">
-        <v>60</v>
-      </c>
       <c r="F21" t="s">
         <v>15</v>
       </c>
       <c r="G21" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H21">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I21" t="s">
         <v>47</v>
       </c>
       <c r="J21">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>IF(G21="si",1,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22" t="s">
         <v>61</v>
       </c>
-      <c r="F22" t="s">
-        <v>15</v>
-      </c>
       <c r="G22" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I22" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="J22">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>IF(G22="si",1,0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
         <v>62</v>
       </c>
+      <c r="C23" t="s">
+        <v>63</v>
+      </c>
       <c r="F23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G23" t="s">
         <v>16</v>
       </c>
       <c r="H23">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I23" t="s">
         <v>36</v>
       </c>
       <c r="J23">
-        <f t="shared" si="0"/>
+        <f>IF(G23="si",1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -2533,23 +2521,20 @@
       <c r="A24" t="s">
         <v>64</v>
       </c>
-      <c r="C24" t="s">
+      <c r="F24" t="s">
         <v>65</v>
       </c>
-      <c r="F24" t="s">
-        <v>63</v>
-      </c>
       <c r="G24" t="s">
         <v>16</v>
       </c>
       <c r="H24">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I24" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J24">
-        <f t="shared" si="0"/>
+        <f>IF(G24="si",1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -2558,25 +2543,25 @@
         <v>66</v>
       </c>
       <c r="F25" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="G25" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H25">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I25" t="s">
         <v>50</v>
       </c>
       <c r="J25">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>IF(G25="si",1,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F26" t="s">
         <v>15</v>
@@ -2588,85 +2573,85 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="J26">
-        <f t="shared" si="0"/>
+        <f>IF(G26="si",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" t="s">
         <v>69</v>
       </c>
+      <c r="C27" t="s">
+        <v>70</v>
+      </c>
       <c r="F27" t="s">
         <v>15</v>
       </c>
       <c r="G27" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I27" t="s">
         <v>36</v>
       </c>
       <c r="J27">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>IF(G27="si",1,0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>70</v>
-      </c>
-      <c r="B28" t="s">
         <v>71</v>
       </c>
-      <c r="C28" t="s">
-        <v>72</v>
-      </c>
       <c r="F28" t="s">
         <v>15</v>
       </c>
       <c r="G28" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I28" t="s">
         <v>36</v>
       </c>
       <c r="J28">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>IF(G28="si",1,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F29" t="s">
         <v>15</v>
       </c>
       <c r="G29" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H29">
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J29">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>IF(G29="si",1,0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F30" t="s">
         <v>15</v>
@@ -2678,97 +2663,103 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J30">
-        <f t="shared" si="0"/>
+        <f>IF(G30="si",1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" t="s">
         <v>75</v>
       </c>
+      <c r="C31" t="s">
+        <v>76</v>
+      </c>
       <c r="F31" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="G31" t="s">
         <v>16</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I31" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="J31">
-        <f t="shared" si="0"/>
+        <f>IF(G31="si",1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B32" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C32" t="s">
-        <v>78</v>
+        <v>80</v>
+      </c>
+      <c r="E32" t="s">
+        <v>81</v>
       </c>
       <c r="F32" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G32" t="s">
         <v>16</v>
       </c>
       <c r="H32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I32" t="s">
         <v>40</v>
       </c>
       <c r="J32">
-        <f t="shared" si="0"/>
+        <f>IF(G32="si",1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>80</v>
-      </c>
-      <c r="B33" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C33" t="s">
-        <v>82</v>
-      </c>
-      <c r="E33" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F33" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="G33" t="s">
         <v>16</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I33" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="J33">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="J33:J64" si="0">IF(G33="si",1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>61</v>
+        <v>85</v>
+      </c>
+      <c r="B34" t="s">
+        <v>86</v>
       </c>
       <c r="C34" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F34" t="s">
         <v>15</v>
@@ -2777,7 +2768,7 @@
         <v>16</v>
       </c>
       <c r="H34">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I34" t="s">
         <v>47</v>
@@ -2789,43 +2780,46 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>86</v>
+        <v>88</v>
+      </c>
+      <c r="B35" t="s">
+        <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F35" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="G35" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H35">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I35" t="s">
         <v>47</v>
       </c>
       <c r="J35">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B36" t="s">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="C36" t="s">
+        <v>92</v>
+      </c>
+      <c r="F36" t="s">
         <v>90</v>
       </c>
-      <c r="F36" t="s">
-        <v>15</v>
-      </c>
       <c r="G36" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -2835,21 +2829,18 @@
       </c>
       <c r="J36">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>91</v>
-      </c>
-      <c r="B37" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="C37" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F37" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="G37" t="s">
         <v>22</v>
@@ -2867,16 +2858,16 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="C38" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F38" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="G38" t="s">
         <v>22</v>
@@ -2894,13 +2885,13 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C39" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F39" t="s">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="G39" t="s">
         <v>22</v>
@@ -2909,7 +2900,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="J39">
         <f t="shared" si="0"/>
@@ -2918,43 +2909,46 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B40" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C40" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F40" t="s">
         <v>15</v>
       </c>
       <c r="G40" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H40">
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="J40">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>101</v>
+        <v>104</v>
+      </c>
+      <c r="B41" t="s">
+        <v>105</v>
       </c>
       <c r="C41" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F41" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="G41" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -2964,21 +2958,21 @@
       </c>
       <c r="J41">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B42" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C42" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F42" t="s">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="G42" t="s">
         <v>16</v>
@@ -2996,16 +2990,13 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>107</v>
-      </c>
-      <c r="B43" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C43" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F43" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="G43" t="s">
         <v>16</v>
@@ -3023,22 +3014,19 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>110</v>
-      </c>
-      <c r="B44" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C44" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F44" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G44" t="s">
         <v>16</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I44" t="s">
         <v>17</v>
@@ -3050,13 +3038,13 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C45" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F45" t="s">
-        <v>116</v>
+        <v>15</v>
       </c>
       <c r="G45" t="s">
         <v>16</v>
@@ -3074,112 +3062,106 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C46" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F46" t="s">
-        <v>119</v>
+        <v>15</v>
       </c>
       <c r="G46" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H46">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I46" t="s">
         <v>17</v>
       </c>
       <c r="J46">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C47" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F47" t="s">
         <v>15</v>
       </c>
       <c r="G47" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H47">
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="J47">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" t="s">
-        <v>122</v>
-      </c>
-      <c r="C48" t="s">
         <v>123</v>
       </c>
       <c r="F48" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="G48" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H48">
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="J48">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" t="s">
         <v>124</v>
       </c>
-      <c r="C49" t="s">
-        <v>125</v>
-      </c>
       <c r="F49" t="s">
         <v>15</v>
       </c>
       <c r="G49" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I49" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="J49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" t="s">
+        <v>125</v>
+      </c>
+      <c r="F50" t="s">
         <v>126</v>
       </c>
-      <c r="F50" t="s">
-        <v>52</v>
-      </c>
       <c r="G50" t="s">
         <v>16</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I50" t="s">
         <v>40</v>
@@ -3194,13 +3176,13 @@
         <v>127</v>
       </c>
       <c r="F51" t="s">
-        <v>15</v>
+        <v>128</v>
       </c>
       <c r="G51" t="s">
         <v>16</v>
       </c>
       <c r="H51">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I51" t="s">
         <v>40</v>
@@ -3212,37 +3194,37 @@
     </row>
     <row r="52" spans="1:10">
       <c r="A52" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F52" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G52" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H52">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I52" t="s">
         <v>40</v>
       </c>
       <c r="J52">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F53" t="s">
-        <v>131</v>
+        <v>15</v>
       </c>
       <c r="G53" t="s">
         <v>16</v>
       </c>
       <c r="H53">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I53" t="s">
         <v>40</v>
@@ -3257,10 +3239,10 @@
         <v>132</v>
       </c>
       <c r="F54" t="s">
-        <v>133</v>
+        <v>15</v>
       </c>
       <c r="G54" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -3270,28 +3252,28 @@
       </c>
       <c r="J54">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" t="s">
+        <v>133</v>
+      </c>
+      <c r="F55" t="s">
         <v>134</v>
       </c>
-      <c r="F55" t="s">
-        <v>15</v>
-      </c>
       <c r="G55" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H55">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I55" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="J55">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -3299,41 +3281,41 @@
         <v>135</v>
       </c>
       <c r="F56" t="s">
-        <v>15</v>
+        <v>136</v>
       </c>
       <c r="G56" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H56">
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="J56">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F57" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="G57" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I57" t="s">
         <v>17</v>
       </c>
       <c r="J57">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -3341,7 +3323,7 @@
         <v>138</v>
       </c>
       <c r="F58" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="G58" t="s">
         <v>22</v>
@@ -3359,16 +3341,16 @@
     </row>
     <row r="59" spans="1:10">
       <c r="A59" t="s">
+        <v>139</v>
+      </c>
+      <c r="F59" t="s">
         <v>140</v>
       </c>
-      <c r="F59" t="s">
-        <v>116</v>
-      </c>
       <c r="G59" t="s">
         <v>16</v>
       </c>
       <c r="H59">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I59" t="s">
         <v>17</v>
@@ -3383,7 +3365,7 @@
         <v>141</v>
       </c>
       <c r="F60" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="G60" t="s">
         <v>22</v>
@@ -3404,10 +3386,10 @@
         <v>142</v>
       </c>
       <c r="F61" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="G61" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -3417,15 +3399,15 @@
       </c>
       <c r="J61">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" t="s">
+        <v>143</v>
+      </c>
+      <c r="F62" t="s">
         <v>144</v>
-      </c>
-      <c r="F62" t="s">
-        <v>143</v>
       </c>
       <c r="G62" t="s">
         <v>22</v>
@@ -3446,10 +3428,10 @@
         <v>145</v>
       </c>
       <c r="F63" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G63" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -3459,7 +3441,7 @@
       </c>
       <c r="J63">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -3470,7 +3452,7 @@
         <v>147</v>
       </c>
       <c r="G64" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -3480,7 +3462,7 @@
       </c>
       <c r="J64">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -3488,7 +3470,7 @@
         <v>148</v>
       </c>
       <c r="F65" t="s">
-        <v>137</v>
+        <v>25</v>
       </c>
       <c r="G65" t="s">
         <v>16</v>
@@ -3500,7 +3482,7 @@
         <v>17</v>
       </c>
       <c r="J65">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="J65:J128" si="1">IF(G65="si",1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -3512,7 +3494,7 @@
         <v>150</v>
       </c>
       <c r="G66" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -3521,8 +3503,8 @@
         <v>17</v>
       </c>
       <c r="J66">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -3530,10 +3512,10 @@
         <v>151</v>
       </c>
       <c r="F67" t="s">
-        <v>25</v>
+        <v>152</v>
       </c>
       <c r="G67" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -3542,19 +3524,19 @@
         <v>17</v>
       </c>
       <c r="J67">
-        <f t="shared" ref="J67:J130" si="1">IF(G67="si",1,0)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F68" t="s">
-        <v>153</v>
+        <v>15</v>
       </c>
       <c r="G68" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -3564,7 +3546,7 @@
       </c>
       <c r="J68">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -3596,7 +3578,7 @@
         <v>15</v>
       </c>
       <c r="G70" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -3606,7 +3588,7 @@
       </c>
       <c r="J70">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -3635,28 +3617,28 @@
         <v>159</v>
       </c>
       <c r="F72" t="s">
-        <v>15</v>
+        <v>160</v>
       </c>
       <c r="G72" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="s">
         <v>17</v>
       </c>
       <c r="J72">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:10">
       <c r="A73" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F73" t="s">
-        <v>161</v>
+        <v>15</v>
       </c>
       <c r="G73" t="s">
         <v>22</v>
@@ -3677,28 +3659,28 @@
         <v>162</v>
       </c>
       <c r="F74" t="s">
-        <v>163</v>
+        <v>15</v>
       </c>
       <c r="G74" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="s">
         <v>17</v>
       </c>
       <c r="J74">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F75" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G75" t="s">
         <v>22</v>
@@ -3716,10 +3698,10 @@
     </row>
     <row r="76" spans="1:10">
       <c r="A76" t="s">
+        <v>164</v>
+      </c>
+      <c r="F76" t="s">
         <v>165</v>
-      </c>
-      <c r="F76" t="s">
-        <v>15</v>
       </c>
       <c r="G76" t="s">
         <v>22</v>
@@ -3740,28 +3722,28 @@
         <v>166</v>
       </c>
       <c r="F77" t="s">
-        <v>25</v>
+        <v>167</v>
       </c>
       <c r="G77" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I77" t="s">
         <v>17</v>
       </c>
       <c r="J77">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:10">
       <c r="A78" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F78" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G78" t="s">
         <v>22</v>
@@ -3779,23 +3761,23 @@
     </row>
     <row r="79" spans="1:10">
       <c r="A79" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F79" t="s">
-        <v>170</v>
+        <v>15</v>
       </c>
       <c r="G79" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H79">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I79" t="s">
         <v>17</v>
       </c>
       <c r="J79">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -3806,7 +3788,7 @@
         <v>172</v>
       </c>
       <c r="G80" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -3816,7 +3798,7 @@
       </c>
       <c r="J80">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -3824,7 +3806,7 @@
         <v>173</v>
       </c>
       <c r="F81" t="s">
-        <v>15</v>
+        <v>174</v>
       </c>
       <c r="G81" t="s">
         <v>22</v>
@@ -3842,13 +3824,13 @@
     </row>
     <row r="82" spans="1:10">
       <c r="A82" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F82" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G82" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -3858,18 +3840,18 @@
       </c>
       <c r="J82">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:10">
       <c r="A83" t="s">
+        <v>177</v>
+      </c>
+      <c r="F83" t="s">
         <v>176</v>
       </c>
-      <c r="F83" t="s">
-        <v>177</v>
-      </c>
       <c r="G83" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -3879,7 +3861,7 @@
       </c>
       <c r="J83">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -3911,7 +3893,7 @@
         <v>179</v>
       </c>
       <c r="G85" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -3921,7 +3903,7 @@
       </c>
       <c r="J85">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -3929,7 +3911,7 @@
         <v>181</v>
       </c>
       <c r="F86" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G86" t="s">
         <v>22</v>
@@ -3947,10 +3929,10 @@
     </row>
     <row r="87" spans="1:10">
       <c r="A87" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F87" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G87" t="s">
         <v>22</v>
@@ -3968,13 +3950,13 @@
     </row>
     <row r="88" spans="1:10">
       <c r="A88" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F88" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G88" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -3984,15 +3966,15 @@
       </c>
       <c r="J88">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:10">
       <c r="A89" t="s">
+        <v>184</v>
+      </c>
+      <c r="F89" t="s">
         <v>185</v>
-      </c>
-      <c r="F89" t="s">
-        <v>182</v>
       </c>
       <c r="G89" t="s">
         <v>22</v>
@@ -4013,10 +3995,10 @@
         <v>186</v>
       </c>
       <c r="F90" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G90" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -4026,7 +4008,7 @@
       </c>
       <c r="J90">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -4055,7 +4037,7 @@
         <v>189</v>
       </c>
       <c r="F92" t="s">
-        <v>179</v>
+        <v>15</v>
       </c>
       <c r="G92" t="s">
         <v>22</v>
@@ -4076,7 +4058,7 @@
         <v>190</v>
       </c>
       <c r="F93" t="s">
-        <v>191</v>
+        <v>15</v>
       </c>
       <c r="G93" t="s">
         <v>22</v>
@@ -4094,10 +4076,10 @@
     </row>
     <row r="94" spans="1:10">
       <c r="A94" t="s">
+        <v>191</v>
+      </c>
+      <c r="F94" t="s">
         <v>192</v>
-      </c>
-      <c r="F94" t="s">
-        <v>15</v>
       </c>
       <c r="G94" t="s">
         <v>22</v>
@@ -4118,10 +4100,10 @@
         <v>193</v>
       </c>
       <c r="F95" t="s">
-        <v>15</v>
+        <v>194</v>
       </c>
       <c r="G95" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -4131,18 +4113,18 @@
       </c>
       <c r="J95">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:10">
       <c r="A96" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F96" t="s">
-        <v>195</v>
+        <v>100</v>
       </c>
       <c r="G96" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -4152,7 +4134,7 @@
       </c>
       <c r="J96">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:10">
@@ -4160,7 +4142,7 @@
         <v>196</v>
       </c>
       <c r="F97" t="s">
-        <v>197</v>
+        <v>100</v>
       </c>
       <c r="G97" t="s">
         <v>16</v>
@@ -4178,10 +4160,10 @@
     </row>
     <row r="98" spans="1:10">
       <c r="A98" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F98" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G98" t="s">
         <v>16</v>
@@ -4199,10 +4181,10 @@
     </row>
     <row r="99" spans="1:10">
       <c r="A99" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F99" t="s">
-        <v>103</v>
+        <v>192</v>
       </c>
       <c r="G99" t="s">
         <v>16</v>
@@ -4220,10 +4202,10 @@
     </row>
     <row r="100" spans="1:10">
       <c r="A100" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F100" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="G100" t="s">
         <v>16</v>
@@ -4241,10 +4223,10 @@
     </row>
     <row r="101" spans="1:10">
       <c r="A101" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F101" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G101" t="s">
         <v>16</v>
@@ -4262,40 +4244,40 @@
     </row>
     <row r="102" spans="1:10">
       <c r="A102" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F102" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="G102" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H102">
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="J102">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:10">
       <c r="A103" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F103" t="s">
-        <v>195</v>
+        <v>15</v>
       </c>
       <c r="G103" t="s">
         <v>16</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I103" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="J103">
         <f t="shared" si="1"/>
@@ -4304,40 +4286,40 @@
     </row>
     <row r="104" spans="1:10">
       <c r="A104" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F104" t="s">
-        <v>131</v>
+        <v>15</v>
       </c>
       <c r="G104" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="s">
         <v>40</v>
       </c>
       <c r="J104">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:10">
       <c r="A105" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F105" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="G105" t="s">
         <v>16</v>
       </c>
       <c r="H105">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I105" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="J105">
         <f t="shared" si="1"/>
@@ -4346,7 +4328,7 @@
     </row>
     <row r="106" spans="1:10">
       <c r="A106" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F106" t="s">
         <v>15</v>
@@ -4355,10 +4337,10 @@
         <v>16</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="J106">
         <f t="shared" si="1"/>
@@ -4367,16 +4349,16 @@
     </row>
     <row r="107" spans="1:10">
       <c r="A107" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F107" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G107" t="s">
         <v>16</v>
       </c>
       <c r="H107">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I107" t="s">
         <v>47</v>
@@ -4388,10 +4370,10 @@
     </row>
     <row r="108" spans="1:10">
       <c r="A108" t="s">
+        <v>207</v>
+      </c>
+      <c r="F108" t="s">
         <v>208</v>
-      </c>
-      <c r="F108" t="s">
-        <v>15</v>
       </c>
       <c r="G108" t="s">
         <v>16</v>
@@ -4412,10 +4394,10 @@
         <v>209</v>
       </c>
       <c r="F109" t="s">
-        <v>67</v>
+        <v>208</v>
       </c>
       <c r="G109" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -4425,7 +4407,7 @@
       </c>
       <c r="J109">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:10">
@@ -4433,10 +4415,10 @@
         <v>210</v>
       </c>
       <c r="F110" t="s">
-        <v>211</v>
+        <v>15</v>
       </c>
       <c r="G110" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -4446,225 +4428,225 @@
       </c>
       <c r="J110">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:10">
       <c r="A111" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F111" t="s">
-        <v>211</v>
+        <v>15</v>
       </c>
       <c r="G111" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I111" t="s">
         <v>47</v>
       </c>
       <c r="J111">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:10">
       <c r="A112" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F112" t="s">
         <v>15</v>
       </c>
       <c r="G112" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I112" t="s">
         <v>47</v>
       </c>
       <c r="J112">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:10">
       <c r="A113" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F113" t="s">
         <v>15</v>
       </c>
       <c r="G113" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H113">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I113" t="s">
         <v>47</v>
       </c>
       <c r="J113">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:10">
       <c r="A114" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F114" t="s">
         <v>15</v>
       </c>
       <c r="G114" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H114">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I114" t="s">
         <v>47</v>
       </c>
       <c r="J114">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:10">
       <c r="A115" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F115" t="s">
-        <v>15</v>
+        <v>208</v>
       </c>
       <c r="G115" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I115" t="s">
         <v>47</v>
       </c>
       <c r="J115">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:10">
       <c r="A116" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F116" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="G116" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I116" t="s">
         <v>47</v>
       </c>
       <c r="J116">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:10">
       <c r="A117" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F117" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G117" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H117">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I117" t="s">
         <v>47</v>
       </c>
       <c r="J117">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:10">
       <c r="A118" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F118" t="s">
-        <v>67</v>
+        <v>208</v>
       </c>
       <c r="G118" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H118">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I118" t="s">
         <v>47</v>
       </c>
       <c r="J118">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:10">
       <c r="A119" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F119" t="s">
-        <v>211</v>
+        <v>15</v>
       </c>
       <c r="G119" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I119" t="s">
         <v>47</v>
       </c>
       <c r="J119">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:10">
       <c r="A120" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F120" t="s">
-        <v>211</v>
+        <v>65</v>
       </c>
       <c r="G120" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I120" t="s">
         <v>47</v>
       </c>
       <c r="J120">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>IF(G120="si",1,0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:10">
       <c r="A121" t="s">
+        <v>221</v>
+      </c>
+      <c r="F121" t="s">
         <v>222</v>
-      </c>
-      <c r="F121" t="s">
-        <v>15</v>
       </c>
       <c r="G121" t="s">
         <v>16</v>
@@ -4676,71 +4658,71 @@
         <v>47</v>
       </c>
       <c r="J121">
-        <f t="shared" si="1"/>
+        <f>IF(G121="si",1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:10">
       <c r="A122" t="s">
-        <v>86</v>
+        <v>223</v>
       </c>
       <c r="F122" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="G122" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I122" t="s">
         <v>47</v>
       </c>
       <c r="J122">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>IF(G122="si",1,0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:10">
       <c r="A123" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F123" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="G123" t="s">
         <v>16</v>
       </c>
       <c r="H123">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I123" t="s">
         <v>47</v>
       </c>
       <c r="J123">
-        <f t="shared" si="1"/>
+        <f>IF(G123="si",1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:10">
       <c r="A124" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F124" t="s">
-        <v>225</v>
+        <v>15</v>
       </c>
       <c r="G124" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H124">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I124" t="s">
         <v>47</v>
       </c>
       <c r="J124">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>IF(G124="si",1,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:10">
@@ -4751,17 +4733,17 @@
         <v>15</v>
       </c>
       <c r="G125" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H125">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I125" t="s">
         <v>47</v>
       </c>
       <c r="J125">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>IF(G125="si",1,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:10">
@@ -4769,19 +4751,19 @@
         <v>227</v>
       </c>
       <c r="F126" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="G126" t="s">
         <v>16</v>
       </c>
       <c r="H126">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I126" t="s">
         <v>47</v>
       </c>
       <c r="J126">
-        <f t="shared" si="1"/>
+        <f>IF(G126="si",1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -4802,7 +4784,7 @@
         <v>47</v>
       </c>
       <c r="J127">
-        <f t="shared" si="1"/>
+        <f>IF(G127="si",1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4814,17 +4796,17 @@
         <v>15</v>
       </c>
       <c r="G128" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I128" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J128">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>IF(G128="si",1,0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:10">
@@ -4832,31 +4814,31 @@
         <v>230</v>
       </c>
       <c r="F129" t="s">
-        <v>67</v>
+        <v>231</v>
       </c>
       <c r="G129" t="s">
         <v>16</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I129" t="s">
-        <v>47</v>
+        <v>232</v>
       </c>
       <c r="J129">
-        <f t="shared" si="1"/>
+        <f>IF(G129="si",1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:10">
       <c r="A130" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F130" t="s">
         <v>15</v>
       </c>
       <c r="G130" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -4865,49 +4847,49 @@
         <v>47</v>
       </c>
       <c r="J130">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>IF(G130="si",1,0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:10">
       <c r="A131" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F131" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="G131" t="s">
         <v>16</v>
       </c>
       <c r="H131">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I131" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J131">
-        <f t="shared" ref="J131:J194" si="2">IF(G131="si",1,0)</f>
+        <f>IF(G131="si",1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:10">
       <c r="A132" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F132" t="s">
-        <v>234</v>
+        <v>15</v>
       </c>
       <c r="G132" t="s">
         <v>16</v>
       </c>
       <c r="H132">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I132" t="s">
-        <v>235</v>
+        <v>47</v>
       </c>
       <c r="J132">
-        <f t="shared" si="2"/>
+        <f>IF(G132="si",1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -4916,7 +4898,7 @@
         <v>236</v>
       </c>
       <c r="F133" t="s">
-        <v>15</v>
+        <v>208</v>
       </c>
       <c r="G133" t="s">
         <v>16</v>
@@ -4928,7 +4910,7 @@
         <v>47</v>
       </c>
       <c r="J133">
-        <f t="shared" si="2"/>
+        <f>IF(G133="si",1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -4937,20 +4919,20 @@
         <v>237</v>
       </c>
       <c r="F134" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G134" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H134">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I134" t="s">
         <v>47</v>
       </c>
       <c r="J134">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f>IF(G134="si",1,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:10">
@@ -4961,7 +4943,7 @@
         <v>15</v>
       </c>
       <c r="G135" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H135">
         <v>0</v>
@@ -4970,19 +4952,19 @@
         <v>47</v>
       </c>
       <c r="J135">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f>IF(G135="si",1,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:10">
       <c r="A136" t="s">
-        <v>49</v>
+        <v>239</v>
       </c>
       <c r="F136" t="s">
-        <v>15</v>
+        <v>231</v>
       </c>
       <c r="G136" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H136">
         <v>0</v>
@@ -4991,19 +4973,19 @@
         <v>47</v>
       </c>
       <c r="J136">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f>IF(G136="si",1,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:10">
       <c r="A137" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F137" t="s">
-        <v>211</v>
+        <v>65</v>
       </c>
       <c r="G137" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H137">
         <v>0</v>
@@ -5012,58 +4994,58 @@
         <v>47</v>
       </c>
       <c r="J137">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f>IF(G137="si",1,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:10">
       <c r="A138" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F138" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="G138" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I138" t="s">
         <v>47</v>
       </c>
       <c r="J138">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>IF(G138="si",1,0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:10">
       <c r="A139" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F139" t="s">
         <v>15</v>
       </c>
       <c r="G139" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I139" t="s">
         <v>47</v>
       </c>
       <c r="J139">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>IF(G139="si",1,0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:10">
       <c r="A140" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F140" t="s">
-        <v>234</v>
+        <v>65</v>
       </c>
       <c r="G140" t="s">
         <v>22</v>
@@ -5075,118 +5057,121 @@
         <v>47</v>
       </c>
       <c r="J140">
-        <f t="shared" si="2"/>
+        <f>IF(G140="si",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:10">
       <c r="A141" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F141" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="G141" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I141" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J141">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>IF(G141="si",1,0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:10">
       <c r="A142" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F142" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="G142" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H142">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I142" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="J142">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f>IF(G142="si",1,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:10">
       <c r="A143" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F143" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="G143" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H143">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I143" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="J143">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f>IF(G143="si",1,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:10">
       <c r="A144" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F144" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="G144" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I144" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="J144">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>IF(G144="si",1,0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:10">
       <c r="A145" t="s">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="F145" t="s">
         <v>15</v>
       </c>
       <c r="G145" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H145">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I145" t="s">
         <v>36</v>
       </c>
       <c r="J145">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f>IF(G145="si",1,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:10">
       <c r="A146" t="s">
-        <v>73</v>
+        <v>249</v>
+      </c>
+      <c r="E146" t="s">
+        <v>250</v>
       </c>
       <c r="F146" t="s">
         <v>15</v>
@@ -5195,22 +5180,22 @@
         <v>16</v>
       </c>
       <c r="H146">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I146" t="s">
         <v>36</v>
       </c>
       <c r="J146">
-        <f t="shared" si="2"/>
+        <f>IF(G146="si",1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:10">
       <c r="A147" t="s">
-        <v>62</v>
+        <v>251</v>
       </c>
       <c r="F147" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="G147" t="s">
         <v>22</v>
@@ -5222,13 +5207,13 @@
         <v>36</v>
       </c>
       <c r="J147">
-        <f t="shared" si="2"/>
+        <f>IF(G147="si",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:10">
       <c r="A148" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="F148" t="s">
         <v>15</v>
@@ -5237,43 +5222,46 @@
         <v>16</v>
       </c>
       <c r="H148">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I148" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="J148">
-        <f t="shared" si="2"/>
+        <f>IF(G148="si",1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:10">
       <c r="A149" t="s">
-        <v>248</v>
+        <v>253</v>
+      </c>
+      <c r="B149" t="s">
+        <v>254</v>
       </c>
       <c r="F149" t="s">
-        <v>116</v>
+        <v>15</v>
       </c>
       <c r="G149" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I149" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="J149">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>IF(G149="si",1,0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:10">
       <c r="A150" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="F150" t="s">
-        <v>116</v>
+        <v>179</v>
       </c>
       <c r="G150" t="s">
         <v>22</v>
@@ -5282,85 +5270,82 @@
         <v>0</v>
       </c>
       <c r="I150" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="J150">
-        <f t="shared" si="2"/>
+        <f>IF(G150="si",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:10">
       <c r="A151" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="F151" t="s">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="G151" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H151">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I151" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="J151">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f>IF(G151="si",1,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:10">
       <c r="A152" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="F152" t="s">
-        <v>15</v>
+        <v>128</v>
       </c>
       <c r="G152" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H152">
         <v>0</v>
       </c>
       <c r="I152" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="J152">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>IF(G152="si",1,0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:10">
       <c r="A153" t="s">
-        <v>252</v>
-      </c>
-      <c r="E153" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="F153" t="s">
-        <v>15</v>
+        <v>188</v>
       </c>
       <c r="G153" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H153">
         <v>0</v>
       </c>
       <c r="I153" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="J153">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f>IF(G153="si",1,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:10">
       <c r="A154" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="F154" t="s">
-        <v>116</v>
+        <v>65</v>
       </c>
       <c r="G154" t="s">
         <v>22</v>
@@ -5369,19 +5354,19 @@
         <v>0</v>
       </c>
       <c r="I154" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="J154">
-        <f t="shared" si="2"/>
+        <f>IF(G154="si",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:10">
       <c r="A155" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="F155" t="s">
-        <v>15</v>
+        <v>128</v>
       </c>
       <c r="G155" t="s">
         <v>16</v>
@@ -5393,43 +5378,40 @@
         <v>17</v>
       </c>
       <c r="J155">
-        <f t="shared" si="2"/>
+        <f>IF(G155="si",1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:10">
       <c r="A156" t="s">
-        <v>256</v>
-      </c>
-      <c r="B156" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F156" t="s">
-        <v>15</v>
+        <v>262</v>
       </c>
       <c r="G156" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H156">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I156" t="s">
         <v>17</v>
       </c>
       <c r="J156">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f>IF(G156="si",1,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:10">
       <c r="A157" t="s">
-        <v>117</v>
+        <v>263</v>
       </c>
       <c r="F157" t="s">
-        <v>119</v>
+        <v>25</v>
       </c>
       <c r="G157" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H157">
         <v>0</v>
@@ -5438,16 +5420,16 @@
         <v>17</v>
       </c>
       <c r="J157">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f>IF(G157="si",1,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:10">
       <c r="A158" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="F158" t="s">
-        <v>182</v>
+        <v>265</v>
       </c>
       <c r="G158" t="s">
         <v>22</v>
@@ -5459,16 +5441,16 @@
         <v>17</v>
       </c>
       <c r="J158">
-        <f t="shared" si="2"/>
+        <f>IF(G158="si",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:10">
       <c r="A159" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="F159" t="s">
-        <v>103</v>
+        <v>267</v>
       </c>
       <c r="G159" t="s">
         <v>22</v>
@@ -5480,19 +5462,19 @@
         <v>17</v>
       </c>
       <c r="J159">
-        <f t="shared" si="2"/>
+        <f>IF(G159="si",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:10">
       <c r="A160" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="F160" t="s">
-        <v>131</v>
+        <v>269</v>
       </c>
       <c r="G160" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H160">
         <v>0</v>
@@ -5501,16 +5483,16 @@
         <v>17</v>
       </c>
       <c r="J160">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f>IF(G160="si",1,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:10">
       <c r="A161" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="F161" t="s">
-        <v>191</v>
+        <v>116</v>
       </c>
       <c r="G161" t="s">
         <v>22</v>
@@ -5522,16 +5504,16 @@
         <v>17</v>
       </c>
       <c r="J161">
-        <f t="shared" si="2"/>
+        <f>IF(G161="si",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:10">
       <c r="A162" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="F162" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="G162" t="s">
         <v>22</v>
@@ -5540,103 +5522,103 @@
         <v>0</v>
       </c>
       <c r="I162" t="s">
-        <v>17</v>
+        <v>272</v>
       </c>
       <c r="J162">
-        <f t="shared" si="2"/>
+        <f>IF(G162="si",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:10">
       <c r="A163" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="F163" t="s">
-        <v>131</v>
+        <v>15</v>
       </c>
       <c r="G163" t="s">
         <v>16</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I163" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="J163">
-        <f t="shared" si="2"/>
+        <f>IF(G163="si",1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:10">
       <c r="A164" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="F164" t="s">
-        <v>265</v>
+        <v>222</v>
       </c>
       <c r="G164" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I164" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="J164">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>IF(G164="si",1,0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:10">
       <c r="A165" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="F165" t="s">
-        <v>25</v>
+        <v>276</v>
       </c>
       <c r="G165" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H165">
         <v>0</v>
       </c>
       <c r="I165" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="J165">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>IF(G165="si",1,0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:10">
       <c r="A166" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="F166" t="s">
-        <v>268</v>
+        <v>90</v>
       </c>
       <c r="G166" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H166">
         <v>0</v>
       </c>
       <c r="I166" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="J166">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>IF(G166="si",1,0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:10">
       <c r="A167" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="F167" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="G167" t="s">
         <v>22</v>
@@ -5645,61 +5627,61 @@
         <v>0</v>
       </c>
       <c r="I167" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="J167">
-        <f t="shared" si="2"/>
+        <f>IF(G167="si",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:10">
       <c r="A168" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="F168" t="s">
-        <v>272</v>
+        <v>15</v>
       </c>
       <c r="G168" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H168">
         <v>0</v>
       </c>
       <c r="I168" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="J168">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>IF(G168="si",1,0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:10">
       <c r="A169" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="F169" t="s">
-        <v>272</v>
+        <v>15</v>
       </c>
       <c r="G169" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H169">
         <v>0</v>
       </c>
       <c r="I169" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="J169">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>IF(G169="si",1,0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:10">
       <c r="A170" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="F170" t="s">
-        <v>119</v>
+        <v>15</v>
       </c>
       <c r="G170" t="s">
         <v>22</v>
@@ -5708,37 +5690,37 @@
         <v>0</v>
       </c>
       <c r="I170" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="J170">
-        <f t="shared" si="2"/>
+        <f>IF(G170="si",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:10">
       <c r="A171" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="F171" t="s">
-        <v>15</v>
+        <v>284</v>
       </c>
       <c r="G171" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H171">
         <v>0</v>
       </c>
       <c r="I171" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="J171">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>IF(G171="si",1,0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:10">
       <c r="A172" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="F172" t="s">
         <v>15</v>
@@ -5747,46 +5729,46 @@
         <v>16</v>
       </c>
       <c r="H172">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I172" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="J172">
-        <f t="shared" si="2"/>
+        <f>IF(G172="si",1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:10">
       <c r="A173" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="F173" t="s">
-        <v>225</v>
+        <v>15</v>
       </c>
       <c r="G173" t="s">
         <v>16</v>
       </c>
       <c r="H173">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I173" t="s">
         <v>47</v>
       </c>
       <c r="J173">
-        <f t="shared" si="2"/>
+        <f>IF(G173="si",1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:10">
       <c r="A174" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="F174" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="G174" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H174">
         <v>0</v>
@@ -5795,13 +5777,13 @@
         <v>47</v>
       </c>
       <c r="J174">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f>IF(G174="si",1,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:10">
       <c r="A175" t="s">
-        <v>74</v>
+        <v>289</v>
       </c>
       <c r="F175" t="s">
         <v>15</v>
@@ -5813,22 +5795,22 @@
         <v>0</v>
       </c>
       <c r="I175" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="J175">
-        <f t="shared" si="2"/>
+        <f>IF(G175="si",1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:10">
       <c r="A176" t="s">
-        <v>86</v>
+        <v>290</v>
       </c>
       <c r="F176" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="G176" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H176">
         <v>0</v>
@@ -5837,16 +5819,16 @@
         <v>47</v>
       </c>
       <c r="J176">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>IF(G176="si",1,0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:10">
       <c r="A177" t="s">
-        <v>219</v>
+        <v>291</v>
       </c>
       <c r="F177" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="G177" t="s">
         <v>22</v>
@@ -5858,19 +5840,19 @@
         <v>47</v>
       </c>
       <c r="J177">
-        <f t="shared" si="2"/>
+        <f>IF(G177="si",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:10">
       <c r="A178" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="F178" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="G178" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H178">
         <v>0</v>
@@ -5879,16 +5861,16 @@
         <v>47</v>
       </c>
       <c r="J178">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f>IF(G178="si",1,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:10">
       <c r="A179" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="F179" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="G179" t="s">
         <v>22</v>
@@ -5900,13 +5882,13 @@
         <v>47</v>
       </c>
       <c r="J179">
-        <f t="shared" si="2"/>
+        <f>IF(G179="si",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:10">
       <c r="A180" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="F180" t="s">
         <v>15</v>
@@ -5918,16 +5900,19 @@
         <v>0</v>
       </c>
       <c r="I180" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="J180">
-        <f t="shared" si="2"/>
+        <f>IF(G180="si",1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:10">
       <c r="A181" t="s">
-        <v>283</v>
+        <v>296</v>
+      </c>
+      <c r="C181" t="s">
+        <v>297</v>
       </c>
       <c r="F181" t="s">
         <v>15</v>
@@ -5939,40 +5924,40 @@
         <v>0</v>
       </c>
       <c r="I181" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="J181">
-        <f t="shared" si="2"/>
+        <f>IF(G181="si",1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:10">
       <c r="A182" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="F182" t="s">
         <v>15</v>
       </c>
       <c r="G182" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H182">
         <v>0</v>
       </c>
       <c r="I182" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="J182">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>IF(G182="si",1,0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:10">
       <c r="A183" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="F183" t="s">
-        <v>286</v>
+        <v>15</v>
       </c>
       <c r="G183" t="s">
         <v>16</v>
@@ -5981,19 +5966,16 @@
         <v>0</v>
       </c>
       <c r="I183" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="J183">
-        <f t="shared" si="2"/>
+        <f>IF(G183="si",1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:10">
       <c r="A184" t="s">
-        <v>287</v>
-      </c>
-      <c r="C184" t="s">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="F184" t="s">
         <v>15</v>
@@ -6005,16 +5987,16 @@
         <v>0</v>
       </c>
       <c r="I184" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="J184">
-        <f t="shared" si="2"/>
+        <f>IF(G184="si",1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:10">
       <c r="A185" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="F185" t="s">
         <v>15</v>
@@ -6023,40 +6005,40 @@
         <v>16</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I185" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="J185">
-        <f t="shared" si="2"/>
+        <f>IF(G185="si",1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:10">
       <c r="A186" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="F186" t="s">
-        <v>290</v>
+        <v>15</v>
       </c>
       <c r="G186" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H186">
         <v>0</v>
       </c>
       <c r="I186" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="J186">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>IF(G186="si",1,0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:10">
       <c r="A187" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="F187" t="s">
         <v>15</v>
@@ -6068,16 +6050,16 @@
         <v>0</v>
       </c>
       <c r="I187" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="J187">
-        <f t="shared" si="2"/>
+        <f>IF(G187="si",1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:10">
       <c r="A188" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="F188" t="s">
         <v>15</v>
@@ -6089,19 +6071,19 @@
         <v>0</v>
       </c>
       <c r="I188" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="J188">
-        <f t="shared" si="2"/>
+        <f>IF(G188="si",1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:10">
       <c r="A189" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="F189" t="s">
-        <v>15</v>
+        <v>194</v>
       </c>
       <c r="G189" t="s">
         <v>22</v>
@@ -6110,19 +6092,19 @@
         <v>0</v>
       </c>
       <c r="I189" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="J189">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="J189:J197" si="2">IF(G189="si",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:10">
       <c r="A190" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="F190" t="s">
-        <v>15</v>
+        <v>307</v>
       </c>
       <c r="G190" t="s">
         <v>22</v>
@@ -6131,7 +6113,7 @@
         <v>0</v>
       </c>
       <c r="I190" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="J190">
         <f t="shared" si="2"/>
@@ -6140,10 +6122,10 @@
     </row>
     <row r="191" spans="1:10">
       <c r="A191" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="F191" t="s">
-        <v>296</v>
+        <v>15</v>
       </c>
       <c r="G191" t="s">
         <v>22</v>
@@ -6152,7 +6134,7 @@
         <v>0</v>
       </c>
       <c r="I191" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="J191">
         <f t="shared" si="2"/>
@@ -6161,94 +6143,91 @@
     </row>
     <row r="192" spans="1:10">
       <c r="A192" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="F192" t="s">
-        <v>15</v>
+        <v>310</v>
       </c>
       <c r="G192" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H192">
         <v>0</v>
       </c>
       <c r="I192" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="J192">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:10">
       <c r="A193" t="s">
-        <v>298</v>
-      </c>
-      <c r="C193" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="F193" t="s">
-        <v>15</v>
+        <v>310</v>
       </c>
       <c r="G193" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H193">
         <v>0</v>
       </c>
       <c r="I193" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="J193">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:10">
       <c r="A194" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="F194" t="s">
-        <v>15</v>
+        <v>313</v>
       </c>
       <c r="G194" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H194">
         <v>0</v>
       </c>
       <c r="I194" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="J194">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:10">
       <c r="A195" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="F195" t="s">
-        <v>15</v>
+        <v>315</v>
       </c>
       <c r="G195" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H195">
         <v>0</v>
       </c>
       <c r="I195" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="J195">
-        <f t="shared" ref="J195:J210" si="3">IF(G195="si",1,0)</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:10">
       <c r="A196" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="F196" t="s">
         <v>15</v>
@@ -6260,304 +6239,31 @@
         <v>0</v>
       </c>
       <c r="I196" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="J196">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:10">
       <c r="A197" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="F197" t="s">
         <v>15</v>
       </c>
       <c r="G197" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H197">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I197" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="J197">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198" spans="1:10">
-      <c r="A198" t="s">
-        <v>304</v>
-      </c>
-      <c r="F198" t="s">
-        <v>15</v>
-      </c>
-      <c r="G198" t="s">
-        <v>16</v>
-      </c>
-      <c r="H198">
-        <v>0</v>
-      </c>
-      <c r="I198" t="s">
-        <v>40</v>
-      </c>
-      <c r="J198">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199" spans="1:10">
-      <c r="A199" t="s">
-        <v>305</v>
-      </c>
-      <c r="F199" t="s">
-        <v>15</v>
-      </c>
-      <c r="G199" t="s">
-        <v>16</v>
-      </c>
-      <c r="H199">
-        <v>0</v>
-      </c>
-      <c r="I199" t="s">
-        <v>40</v>
-      </c>
-      <c r="J199">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200" spans="1:10">
-      <c r="A200" t="s">
-        <v>306</v>
-      </c>
-      <c r="F200" t="s">
-        <v>15</v>
-      </c>
-      <c r="G200" t="s">
-        <v>16</v>
-      </c>
-      <c r="H200">
-        <v>0</v>
-      </c>
-      <c r="I200" t="s">
-        <v>40</v>
-      </c>
-      <c r="J200">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201" spans="1:10">
-      <c r="A201" t="s">
-        <v>126</v>
-      </c>
-      <c r="F201" t="s">
-        <v>15</v>
-      </c>
-      <c r="G201" t="s">
-        <v>16</v>
-      </c>
-      <c r="H201">
-        <v>0</v>
-      </c>
-      <c r="I201" t="s">
-        <v>307</v>
-      </c>
-      <c r="J201">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202" spans="1:10">
-      <c r="A202" t="s">
-        <v>308</v>
-      </c>
-      <c r="F202" t="s">
-        <v>197</v>
-      </c>
-      <c r="G202" t="s">
-        <v>22</v>
-      </c>
-      <c r="H202">
-        <v>0</v>
-      </c>
-      <c r="I202" t="s">
-        <v>17</v>
-      </c>
-      <c r="J202">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:10">
-      <c r="A203" t="s">
-        <v>309</v>
-      </c>
-      <c r="F203" t="s">
-        <v>310</v>
-      </c>
-      <c r="G203" t="s">
-        <v>22</v>
-      </c>
-      <c r="H203">
-        <v>0</v>
-      </c>
-      <c r="I203" t="s">
-        <v>17</v>
-      </c>
-      <c r="J203">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:10">
-      <c r="A204" t="s">
-        <v>311</v>
-      </c>
-      <c r="F204" t="s">
-        <v>15</v>
-      </c>
-      <c r="G204" t="s">
-        <v>22</v>
-      </c>
-      <c r="H204">
-        <v>0</v>
-      </c>
-      <c r="I204" t="s">
-        <v>17</v>
-      </c>
-      <c r="J204">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:10">
-      <c r="A205" t="s">
-        <v>312</v>
-      </c>
-      <c r="F205" t="s">
-        <v>313</v>
-      </c>
-      <c r="G205" t="s">
-        <v>22</v>
-      </c>
-      <c r="H205">
-        <v>0</v>
-      </c>
-      <c r="I205" t="s">
-        <v>17</v>
-      </c>
-      <c r="J205">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:10">
-      <c r="A206" t="s">
-        <v>314</v>
-      </c>
-      <c r="F206" t="s">
-        <v>313</v>
-      </c>
-      <c r="G206" t="s">
-        <v>22</v>
-      </c>
-      <c r="H206">
-        <v>0</v>
-      </c>
-      <c r="I206" t="s">
-        <v>17</v>
-      </c>
-      <c r="J206">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:10">
-      <c r="A207" t="s">
-        <v>315</v>
-      </c>
-      <c r="F207" t="s">
-        <v>316</v>
-      </c>
-      <c r="G207" t="s">
-        <v>22</v>
-      </c>
-      <c r="H207">
-        <v>0</v>
-      </c>
-      <c r="I207" t="s">
-        <v>17</v>
-      </c>
-      <c r="J207">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:10">
-      <c r="A208" t="s">
-        <v>317</v>
-      </c>
-      <c r="F208" t="s">
-        <v>318</v>
-      </c>
-      <c r="G208" t="s">
-        <v>22</v>
-      </c>
-      <c r="H208">
-        <v>0</v>
-      </c>
-      <c r="I208" t="s">
-        <v>36</v>
-      </c>
-      <c r="J208">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:10">
-      <c r="A209" t="s">
-        <v>319</v>
-      </c>
-      <c r="F209" t="s">
-        <v>15</v>
-      </c>
-      <c r="G209" t="s">
-        <v>16</v>
-      </c>
-      <c r="H209">
-        <v>0</v>
-      </c>
-      <c r="I209" t="s">
-        <v>36</v>
-      </c>
-      <c r="J209">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210" spans="1:10">
-      <c r="A210" t="s">
-        <v>320</v>
-      </c>
-      <c r="F210" t="s">
-        <v>15</v>
-      </c>
-      <c r="G210" t="s">
-        <v>22</v>
-      </c>
-      <c r="H210">
-        <v>0</v>
-      </c>
-      <c r="I210" t="s">
-        <v>36</v>
-      </c>
-      <c r="J210">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
